--- a/src/test/resources/testdata/Mckissock/TestData.xlsx
+++ b/src/test/resources/testdata/Mckissock/TestData.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E74822-DE1E-4F84-B3D4-8F71A235D9CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTests" sheetId="1" r:id="rId1"/>
     <sheet name="RegistrationTest" sheetId="2" r:id="rId2"/>
+    <sheet name="MainPageTest" sheetId="3" r:id="rId3"/>
+    <sheet name="CheckOutTest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
   <si>
     <t>Username</t>
   </si>
@@ -95,6 +98,93 @@
   </si>
   <si>
     <t>AK</t>
+  </si>
+  <si>
+    <t>MainPageTestData</t>
+  </si>
+  <si>
+    <t>Appraisal</t>
+  </si>
+  <si>
+    <t>continuing-education</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>typeOfEducation</t>
+  </si>
+  <si>
+    <t>firstPageAssertion</t>
+  </si>
+  <si>
+    <t>Appraisal Continuing Education &amp; Appraisal License Renewal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Appraisal Continuing Education &amp; License Renewal</t>
+  </si>
+  <si>
+    <t>secondPageAssertion</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>CheckoutTestData</t>
+  </si>
+  <si>
+    <t>Name on Card</t>
+  </si>
+  <si>
+    <t>Alex Test</t>
+  </si>
+  <si>
+    <t>Credit Card Type</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Credit Or debit Card Number</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>Security Code</t>
+  </si>
+  <si>
+    <t>12016768877@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -103,9 +193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +246,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -199,7 +295,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -215,9 +311,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -646,10 +746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,8 +820,8 @@
       <c r="F2" s="9">
         <v>37206</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
+      <c r="G2" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>20</v>
@@ -740,13 +840,287 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4153556577</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9">
+        <v>37206</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="6">
+        <v>94111</v>
+      </c>
       <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4153556577</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9">
+        <v>37206</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="6">
+        <v>94111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4153556577</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9">
+        <v>37206</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="6">
+        <v>94111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4153556577</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9">
+        <v>37206</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="6">
+        <v>94111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4153556577</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9">
+        <v>37206</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="6">
+        <v>94111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4153556577</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9">
+        <v>37206</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="6">
+        <v>94111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4153556577</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9">
+        <v>37206</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="6">
+        <v>94111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4153556577</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9">
+        <v>37206</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="6">
+        <v>94111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -757,4 +1131,409 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC31A03-4848-4453-8B3E-98F22170DFAD}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0674F5FD-A34D-4F23-A2D4-7D7D2764DBA8}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="8" width="31.88671875" customWidth="1"/>
+    <col min="9" max="11" width="21.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2022</v>
+      </c>
+      <c r="G2" s="6">
+        <v>123</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>